--- a/www.eia.gov/electricity/monthly/xls/table_1_18_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_18_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.18.A. Utility Scale Facility Net Generation from Solar Thermal</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -2339,19 +2339,19 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11">
-        <v>-0.56999999999999995</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.56999999999999995</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E35" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -3099,13 +3099,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C52" s="10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D52" s="11">
-        <v>8.4000000000000005E-2</v>
+        <v>-0.255</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="10">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H52" s="10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C53" s="13">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D53" s="14">
-        <v>2.3E-2</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H53" s="13">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -3289,13 +3289,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C57" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="14">
-        <v>0.44600000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H57" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C61" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" s="11">
-        <v>0.25600000000000001</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E61" s="10">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="10">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="H61" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3479,13 +3479,13 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C62" s="13">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D62" s="14">
-        <v>0.25600000000000001</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="13">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="H62" s="13">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -3707,25 +3707,25 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C68" s="10">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D68" s="11">
-        <v>0.185</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" s="10">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="H68" s="10">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
